--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,18 +519,18 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="E3" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.0095670000000041</v>
+        <v>0.008488999999997304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.21241974</v>
+        <v>0.21313863</v>
       </c>
     </row>
     <row r="4">
@@ -544,24 +544,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BiMode</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="E4" t="n">
-        <v>2048</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2048</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.006709000000000742</v>
+        <v>0.0095670000000041</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11573747</v>
+        <v>0.21241974</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +573,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BiMode</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -584,15 +582,13 @@
       <c r="E5" t="n">
         <v>2048</v>
       </c>
-      <c r="F5" t="n">
-        <v>2048</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.006207000000003404</v>
+        <v>0.00785600000000386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.11529749</v>
+        <v>0.2125869</v>
       </c>
     </row>
     <row r="6">
@@ -606,26 +602,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tournament</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2048</v>
       </c>
       <c r="E6" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="F6" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4096</v>
-      </c>
+        <v>2048</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.007639999999994984</v>
+        <v>0.006709000000000742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09952567999999999</v>
+        <v>0.11573747</v>
       </c>
     </row>
     <row r="7">
@@ -639,26 +633,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tournament</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="E7" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="F7" t="n">
         <v>4096</v>
       </c>
-      <c r="G7" t="n">
-        <v>4096</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.007132999999996059</v>
+        <v>0.006647999999998433</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0990806</v>
+        <v>0.11802073</v>
       </c>
     </row>
     <row r="8">
@@ -667,27 +659,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>2048</v>
       </c>
       <c r="E8" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8192</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.001980000000003201</v>
+        <v>0.006553999999994176</v>
       </c>
       <c r="I8" t="n">
-        <v>50000.2</v>
+        <v>0.11811953</v>
       </c>
     </row>
     <row r="9">
@@ -696,27 +690,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="E9" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2048</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.001970000000000027</v>
+        <v>0.006307000000006724</v>
       </c>
       <c r="I9" t="n">
-        <v>50000.2</v>
+        <v>0.11979439</v>
       </c>
     </row>
     <row r="10">
@@ -725,7 +721,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -737,17 +733,17 @@
         <v>2048</v>
       </c>
       <c r="E10" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F10" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.001512000000005287</v>
+        <v>0.006198999999995181</v>
       </c>
       <c r="I10" t="n">
-        <v>50000.2</v>
+        <v>0.12227981</v>
       </c>
     </row>
     <row r="11">
@@ -756,7 +752,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -765,20 +761,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="E11" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F11" t="n">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.001502000000002113</v>
+        <v>0.006131999999993809</v>
       </c>
       <c r="I11" t="n">
-        <v>50000.2</v>
+        <v>0.12242533</v>
       </c>
     </row>
     <row r="12">
@@ -787,31 +783,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tournament</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>2048</v>
       </c>
       <c r="E12" t="n">
-        <v>1024</v>
+        <v>8192</v>
       </c>
       <c r="F12" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4096</v>
-      </c>
+        <v>2048</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.002644000000003643</v>
+        <v>0.005919000000005781</v>
       </c>
       <c r="I12" t="n">
-        <v>50000.2</v>
+        <v>0.1206203</v>
       </c>
     </row>
     <row r="13">
@@ -820,31 +814,2069 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>hmmer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tournament</t>
+          <t>BiMode</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="E13" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.005829000000005635</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.12299102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0.005757000000002677</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.12309513</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0.006207000000003404</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.11529749</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0.006161000000005856</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1175847</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>0.006066000000004124</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.11768342</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>0.0058169999999933</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.11934793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>0.005740000000002965</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.12184235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0.005668999999997482</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.12199107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0.005442000000002167</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.12017309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0.005375999999998271</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.12253688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0.005300000000005411</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.12264423</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E24" t="n">
         <v>1024</v>
       </c>
-      <c r="F13" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4096</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F24" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.007639999999994984</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.09952567999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.007639999999994984</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.09952567999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.007456000000004792</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.09891158999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.007456000000004792</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.09891158999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.007621999999997797</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08956725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.007621999999997797</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.08956725</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.007512000000005514</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.09828887</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.007512000000005514</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.09828887</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.007132999999996059</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0990806</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.007132999999996059</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0990806</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006932000000006155</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.09847120000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.006932000000006155</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.09847120000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.007120000000000459</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.08914417999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007120000000000459</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.08914417999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.006980999999996129</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.09785052999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>hmmer</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.006980999999996129</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.09785052999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0.001980000000003201</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01581587</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0.001776000000006661</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.02309127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0.001970000000000027</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01580642</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0.001766000000003487</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.02308168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0.001512000000005287</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03085815</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>0.001520999999996775</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03088814</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>0.001520999999996775</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03100635</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0.004334999999997535</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.87289348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0.004334999999997535</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.87319801</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>0.004337000000006697</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.87405895</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0.004341999999994073</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.87687409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>0.004341999999994073</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.8771264</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>0.004343000000005759</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.87766099</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>0.001502000000002113</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.03084835</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0.001512000000005287</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03087834</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>0.001512000000005287</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.03099655</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0.004306999999997174</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.87281736</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>0.004306999999997174</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.87312187</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>0.004309000000006336</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.87398277</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>0.004313999999993712</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.87679775</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>0.004313999999993712</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.87705005</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BiMode</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>0.004315000000005398</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.87758461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.002644000000003643</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.01068149</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.002644000000003643</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01068149</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.00262499999999477</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01072915</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.00262499999999477</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01072915</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.002640999999997007</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0096942</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.002640999999997007</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0096942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.00262299999999982</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0097325</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.00262299999999982</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0097325</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.002634999999997945</v>
       </c>
-      <c r="I13" t="n">
-        <v>50000.2</v>
+      <c r="I70" t="n">
+        <v>0.01067208</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.002634999999997945</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.01067208</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.002616000000003282</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.01071974</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.002616000000003282</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.01071974</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.002632000000005519</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0096848</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4096</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.002632000000005519</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0096848</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.002612999999996646</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0097231</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sjeng</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tournament</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8192</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8192</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.002612999999996646</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0097231</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -501,7 +501,7 @@
         <v>0.01021099999999819</v>
       </c>
       <c r="I2" t="n">
-        <v>0.21296974</v>
+        <v>0.1755771241231409</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         <v>0.008488999999997304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.21313863</v>
+        <v>0.1756918994060407</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,7 @@
         <v>0.0095670000000041</v>
       </c>
       <c r="I4" t="n">
-        <v>0.21241974</v>
+        <v>0.1752031352139986</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>0.00785600000000386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2125869</v>
+        <v>0.1753168395648273</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>0.006709000000000742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.11573747</v>
+        <v>0.1037318110663802</v>
       </c>
     </row>
     <row r="7">
@@ -650,7 +650,7 @@
         <v>0.006647999999998433</v>
       </c>
       <c r="I7" t="n">
-        <v>0.11802073</v>
+        <v>0.1055622039642394</v>
       </c>
     </row>
     <row r="8">
@@ -681,7 +681,7 @@
         <v>0.006553999999994176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.11811953</v>
+        <v>0.1056412387998163</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         <v>0.006307000000006724</v>
       </c>
       <c r="I9" t="n">
-        <v>0.11979439</v>
+        <v>0.1069789183063353</v>
       </c>
     </row>
     <row r="10">
@@ -743,7 +743,7 @@
         <v>0.006198999999995181</v>
       </c>
       <c r="I10" t="n">
-        <v>0.12227981</v>
+        <v>0.1089566144542247</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
         <v>0.006131999999993809</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12242533</v>
+        <v>0.1090721351284992</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>0.005919000000005781</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1206203</v>
+        <v>0.1076370832123296</v>
       </c>
     </row>
     <row r="13">
@@ -836,7 +836,7 @@
         <v>0.005829000000005635</v>
       </c>
       <c r="I13" t="n">
-        <v>0.12299102</v>
+        <v>0.1095209303739533</v>
       </c>
     </row>
     <row r="14">
@@ -867,7 +867,7 @@
         <v>0.005757000000002677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12309513</v>
+        <v>0.109603477802661</v>
       </c>
     </row>
     <row r="15">
@@ -898,7 +898,7 @@
         <v>0.006207000000003404</v>
       </c>
       <c r="I15" t="n">
-        <v>0.11529749</v>
+        <v>0.1033782357022433</v>
       </c>
     </row>
     <row r="16">
@@ -929,7 +929,7 @@
         <v>0.006161000000005856</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1175847</v>
+        <v>0.1052132320161428</v>
       </c>
     </row>
     <row r="17">
@@ -960,7 +960,7 @@
         <v>0.006066000000004124</v>
       </c>
       <c r="I17" t="n">
-        <v>0.11768342</v>
+        <v>0.1052922662322644</v>
       </c>
     </row>
     <row r="18">
@@ -991,7 +991,7 @@
         <v>0.0058169999999933</v>
       </c>
       <c r="I18" t="n">
-        <v>0.11934793</v>
+        <v>0.1066227281133884</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.005740000000002965</v>
       </c>
       <c r="I19" t="n">
-        <v>0.12184235</v>
+        <v>0.1086091556993573</v>
       </c>
     </row>
     <row r="20">
@@ -1053,7 +1053,7 @@
         <v>0.005668999999997482</v>
       </c>
       <c r="I20" t="n">
-        <v>0.12199107</v>
+        <v>0.1087273106403301</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>0.005442000000002167</v>
       </c>
       <c r="I21" t="n">
-        <v>0.12017309</v>
+        <v>0.1072808190499345</v>
       </c>
     </row>
     <row r="22">
@@ -1115,7 +1115,7 @@
         <v>0.005375999999998271</v>
       </c>
       <c r="I22" t="n">
-        <v>0.12253688</v>
+        <v>0.1091606740548337</v>
       </c>
     </row>
     <row r="23">
@@ -1146,7 +1146,7 @@
         <v>0.005300000000005411</v>
       </c>
       <c r="I23" t="n">
-        <v>0.12264423</v>
+        <v>0.1092458546833887</v>
       </c>
     </row>
     <row r="24">
@@ -1179,7 +1179,7 @@
         <v>0.007639999999994984</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09952567999999999</v>
+        <v>0.09051692278747236</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
         <v>0.007639999999994984</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09952567999999999</v>
+        <v>0.09051692278747236</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
         <v>0.007456000000004792</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09891158999999999</v>
+        <v>0.0900086886824859</v>
       </c>
     </row>
     <row r="27">
@@ -1278,7 +1278,7 @@
         <v>0.007456000000004792</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09891158999999999</v>
+        <v>0.0900086886824859</v>
       </c>
     </row>
     <row r="28">
@@ -1311,7 +1311,7 @@
         <v>0.007621999999997797</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08956725</v>
+        <v>0.08220442930153322</v>
       </c>
     </row>
     <row r="29">
@@ -1344,7 +1344,7 @@
         <v>0.007621999999997797</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08956725</v>
+        <v>0.08220442930153322</v>
       </c>
     </row>
     <row r="30">
@@ -1377,7 +1377,7 @@
         <v>0.007512000000005514</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09828887</v>
+        <v>0.0894927288864614</v>
       </c>
     </row>
     <row r="31">
@@ -1410,7 +1410,7 @@
         <v>0.007512000000005514</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09828887</v>
+        <v>0.0894927288864614</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1443,7 @@
         <v>0.007132999999996059</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0990806</v>
+        <v>0.09014862395183831</v>
       </c>
     </row>
     <row r="33">
@@ -1476,7 +1476,7 @@
         <v>0.007132999999996059</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0990806</v>
+        <v>0.09014862395183831</v>
       </c>
     </row>
     <row r="34">
@@ -1509,7 +1509,7 @@
         <v>0.006932000000006155</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09847120000000001</v>
+        <v>0.08964386255573066</v>
       </c>
     </row>
     <row r="35">
@@ -1542,7 +1542,7 @@
         <v>0.006932000000006155</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09847120000000001</v>
+        <v>0.08964386255573066</v>
       </c>
     </row>
     <row r="36">
@@ -1575,7 +1575,7 @@
         <v>0.007120000000000459</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08914417999999999</v>
+        <v>0.08184791496320523</v>
       </c>
     </row>
     <row r="37">
@@ -1608,7 +1608,7 @@
         <v>0.007120000000000459</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08914417999999999</v>
+        <v>0.08184791496320523</v>
       </c>
     </row>
     <row r="38">
@@ -1641,7 +1641,7 @@
         <v>0.006980999999996129</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09785052999999999</v>
+        <v>0.08912918817072171</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
         <v>0.006980999999996129</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09785052999999999</v>
+        <v>0.08912918817072171</v>
       </c>
     </row>
     <row r="40">
@@ -1703,7 +1703,7 @@
         <v>0.001980000000003201</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01581587</v>
+        <v>0.01556961909384817</v>
       </c>
     </row>
     <row r="41">
@@ -1732,7 +1732,7 @@
         <v>0.001776000000006661</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02309127</v>
+        <v>0.02257009645418655</v>
       </c>
     </row>
     <row r="42">
@@ -1761,7 +1761,7 @@
         <v>0.001970000000000027</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01580642</v>
+        <v>0.0155604604943812</v>
       </c>
     </row>
     <row r="43">
@@ -1790,7 +1790,7 @@
         <v>0.001766000000003487</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02308168</v>
+        <v>0.02256093651244378</v>
       </c>
     </row>
     <row r="44">
@@ -1821,7 +1821,7 @@
         <v>0.001512000000005287</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03085815</v>
+        <v>0.02993443197432611</v>
       </c>
     </row>
     <row r="45">
@@ -1852,7 +1852,7 @@
         <v>0.001520999999996775</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03088814</v>
+        <v>0.02996265043574492</v>
       </c>
     </row>
     <row r="46">
@@ -1883,7 +1883,7 @@
         <v>0.001520999999996775</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03100635</v>
+        <v>0.03007387050067784</v>
       </c>
     </row>
     <row r="47">
@@ -1914,7 +1914,7 @@
         <v>0.004334999999997535</v>
       </c>
       <c r="I47" t="n">
-        <v>1.87289348</v>
+        <v>0.6519188733017902</v>
       </c>
     </row>
     <row r="48">
@@ -1945,7 +1945,7 @@
         <v>0.004334999999997535</v>
       </c>
       <c r="I48" t="n">
-        <v>1.87319801</v>
+        <v>0.6519557658430407</v>
       </c>
     </row>
     <row r="49">
@@ -1976,7 +1976,7 @@
         <v>0.004337000000006697</v>
       </c>
       <c r="I49" t="n">
-        <v>1.87405895</v>
+        <v>0.6520600252718569</v>
       </c>
     </row>
     <row r="50">
@@ -2007,7 +2007,7 @@
         <v>0.004341999999994073</v>
       </c>
       <c r="I50" t="n">
-        <v>1.87687409</v>
+        <v>0.6524004980860582</v>
       </c>
     </row>
     <row r="51">
@@ -2038,7 +2038,7 @@
         <v>0.004341999999994073</v>
       </c>
       <c r="I51" t="n">
-        <v>1.8771264</v>
+        <v>0.652430981524356</v>
       </c>
     </row>
     <row r="52">
@@ -2069,7 +2069,7 @@
         <v>0.004343000000005759</v>
       </c>
       <c r="I52" t="n">
-        <v>1.87766099</v>
+        <v>0.6524955494267293</v>
       </c>
     </row>
     <row r="53">
@@ -2100,7 +2100,7 @@
         <v>0.001502000000002113</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03084835</v>
+        <v>0.02992521002978688</v>
       </c>
     </row>
     <row r="54">
@@ -2131,7 +2131,7 @@
         <v>0.001512000000005287</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03087834</v>
+        <v>0.02995342832111403</v>
       </c>
     </row>
     <row r="55">
@@ -2162,7 +2162,7 @@
         <v>0.001512000000005287</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03099655</v>
+        <v>0.03006464821594902</v>
       </c>
     </row>
     <row r="56">
@@ -2193,7 +2193,7 @@
         <v>0.004306999999997174</v>
       </c>
       <c r="I56" t="n">
-        <v>1.87281736</v>
+        <v>0.6519096501664776</v>
       </c>
     </row>
     <row r="57">
@@ -2224,7 +2224,7 @@
         <v>0.004306999999997174</v>
       </c>
       <c r="I57" t="n">
-        <v>1.87312187</v>
+        <v>0.6519465427077281</v>
       </c>
     </row>
     <row r="58">
@@ -2255,7 +2255,7 @@
         <v>0.004309000000006336</v>
       </c>
       <c r="I58" t="n">
-        <v>1.87398277</v>
+        <v>0.6520508019664087</v>
       </c>
     </row>
     <row r="59">
@@ -2286,7 +2286,7 @@
         <v>0.004313999999993712</v>
       </c>
       <c r="I59" t="n">
-        <v>1.87679775</v>
+        <v>0.6523912742701655</v>
       </c>
     </row>
     <row r="60">
@@ -2317,7 +2317,7 @@
         <v>0.004313999999993712</v>
       </c>
       <c r="I60" t="n">
-        <v>1.87705005</v>
+        <v>0.6524217575383026</v>
       </c>
     </row>
     <row r="61">
@@ -2348,7 +2348,7 @@
         <v>0.004315000000005398</v>
       </c>
       <c r="I61" t="n">
-        <v>1.87758461</v>
+        <v>0.652486325440676</v>
       </c>
     </row>
     <row r="62">
@@ -2381,7 +2381,7 @@
         <v>0.002644000000003643</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01068149</v>
+        <v>0.01056860378332059</v>
       </c>
     </row>
     <row r="63">
@@ -2414,7 +2414,7 @@
         <v>0.002644000000003643</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01068149</v>
+        <v>0.01056860378332059</v>
       </c>
     </row>
     <row r="64">
@@ -2447,7 +2447,7 @@
         <v>0.00262499999999477</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01072915</v>
+        <v>0.01061526128101877</v>
       </c>
     </row>
     <row r="65">
@@ -2480,7 +2480,7 @@
         <v>0.00262499999999477</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01072915</v>
+        <v>0.01061526128101877</v>
       </c>
     </row>
     <row r="66">
@@ -2513,7 +2513,7 @@
         <v>0.002640999999997007</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0096942</v>
+        <v>0.009601120437855319</v>
       </c>
     </row>
     <row r="67">
@@ -2546,7 +2546,7 @@
         <v>0.002640999999997007</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0096942</v>
+        <v>0.009601120437855319</v>
       </c>
     </row>
     <row r="68">
@@ -2579,7 +2579,7 @@
         <v>0.00262299999999982</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0097325</v>
+        <v>0.009638687442983386</v>
       </c>
     </row>
     <row r="69">
@@ -2612,7 +2612,7 @@
         <v>0.00262299999999982</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0097325</v>
+        <v>0.009638687442983386</v>
       </c>
     </row>
     <row r="70">
@@ -2645,7 +2645,7 @@
         <v>0.002634999999997945</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01067208</v>
+        <v>0.01055938965622092</v>
       </c>
     </row>
     <row r="71">
@@ -2678,7 +2678,7 @@
         <v>0.002634999999997945</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01067208</v>
+        <v>0.01055938965622092</v>
       </c>
     </row>
     <row r="72">
@@ -2711,7 +2711,7 @@
         <v>0.002616000000003282</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01071974</v>
+        <v>0.01060604664449011</v>
       </c>
     </row>
     <row r="73">
@@ -2744,7 +2744,7 @@
         <v>0.002616000000003282</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01071974</v>
+        <v>0.01060604664449011</v>
       </c>
     </row>
     <row r="74">
@@ -2777,7 +2777,7 @@
         <v>0.002632000000005519</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0096848</v>
+        <v>0.009591906310755651</v>
       </c>
     </row>
     <row r="75">
@@ -2810,7 +2810,7 @@
         <v>0.002632000000005519</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0096848</v>
+        <v>0.009591906310755651</v>
       </c>
     </row>
     <row r="76">
@@ -2843,7 +2843,7 @@
         <v>0.002612999999996646</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0097231</v>
+        <v>0.009629472636632542</v>
       </c>
     </row>
     <row r="77">
@@ -2876,7 +2876,7 @@
         <v>0.002612999999996646</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0097231</v>
+        <v>0.009629472636632542</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -605,16 +605,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>2048</v>
       </c>
       <c r="F6" t="n">
         <v>2048</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2048</v>
+      </c>
       <c r="H6" t="n">
         <v>0.006709000000000742</v>
       </c>
@@ -636,16 +636,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>2048</v>
       </c>
       <c r="F7" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4096</v>
+      </c>
       <c r="H7" t="n">
         <v>0.006647999999998433</v>
       </c>
@@ -667,16 +667,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>2048</v>
       </c>
       <c r="F8" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8192</v>
+      </c>
       <c r="H8" t="n">
         <v>0.006553999999994176</v>
       </c>
@@ -698,16 +698,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F9" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2048</v>
+      </c>
       <c r="H9" t="n">
         <v>0.006307000000006724</v>
       </c>
@@ -729,16 +729,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F10" t="n">
         <v>4096</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>4096</v>
+      </c>
       <c r="H10" t="n">
         <v>0.006198999999995181</v>
       </c>
@@ -760,16 +760,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F11" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8192</v>
+      </c>
       <c r="H11" t="n">
         <v>0.006131999999993809</v>
       </c>
@@ -791,16 +791,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F12" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2048</v>
+      </c>
       <c r="H12" t="n">
         <v>0.005919000000005781</v>
       </c>
@@ -822,16 +822,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F13" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4096</v>
+      </c>
       <c r="H13" t="n">
         <v>0.005829000000005635</v>
       </c>
@@ -853,16 +853,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F14" t="n">
         <v>8192</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>8192</v>
+      </c>
       <c r="H14" t="n">
         <v>0.005757000000002677</v>
       </c>
@@ -884,16 +884,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F15" t="n">
         <v>2048</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2048</v>
+      </c>
       <c r="H15" t="n">
         <v>0.006207000000003404</v>
       </c>
@@ -915,16 +915,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F16" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4096</v>
+      </c>
       <c r="H16" t="n">
         <v>0.006161000000005856</v>
       </c>
@@ -946,16 +946,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F17" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8192</v>
+      </c>
       <c r="H17" t="n">
         <v>0.006066000000004124</v>
       </c>
@@ -977,16 +977,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>4096</v>
       </c>
       <c r="F18" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2048</v>
+      </c>
       <c r="H18" t="n">
         <v>0.0058169999999933</v>
       </c>
@@ -1008,16 +1008,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>4096</v>
       </c>
       <c r="F19" t="n">
         <v>4096</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>4096</v>
+      </c>
       <c r="H19" t="n">
         <v>0.005740000000002965</v>
       </c>
@@ -1039,16 +1039,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>4096</v>
       </c>
       <c r="F20" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8192</v>
+      </c>
       <c r="H20" t="n">
         <v>0.005668999999997482</v>
       </c>
@@ -1070,16 +1070,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F21" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2048</v>
+      </c>
       <c r="H21" t="n">
         <v>0.005442000000002167</v>
       </c>
@@ -1101,16 +1101,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F22" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4096</v>
+      </c>
       <c r="H22" t="n">
         <v>0.005375999999998271</v>
       </c>
@@ -1132,16 +1132,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F23" t="n">
         <v>8192</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>8192</v>
+      </c>
       <c r="H23" t="n">
         <v>0.005300000000005411</v>
       </c>
@@ -1807,16 +1807,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>2048</v>
       </c>
       <c r="F44" t="n">
         <v>2048</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2048</v>
+      </c>
       <c r="H44" t="n">
         <v>0.001512000000005287</v>
       </c>
@@ -1838,16 +1838,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>2048</v>
       </c>
       <c r="F45" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4096</v>
+      </c>
       <c r="H45" t="n">
         <v>0.001520999999996775</v>
       </c>
@@ -1869,16 +1869,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>2048</v>
       </c>
       <c r="F46" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8192</v>
+      </c>
       <c r="H46" t="n">
         <v>0.001520999999996775</v>
       </c>
@@ -1900,16 +1900,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F47" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2048</v>
+      </c>
       <c r="H47" t="n">
         <v>0.004334999999997535</v>
       </c>
@@ -1931,16 +1931,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F48" t="n">
         <v>4096</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>4096</v>
+      </c>
       <c r="H48" t="n">
         <v>0.004334999999997535</v>
       </c>
@@ -1962,16 +1962,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="F49" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8192</v>
+      </c>
       <c r="H49" t="n">
         <v>0.004337000000006697</v>
       </c>
@@ -1993,16 +1993,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F50" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2048</v>
+      </c>
       <c r="H50" t="n">
         <v>0.004341999999994073</v>
       </c>
@@ -2024,16 +2024,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F51" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4096</v>
+      </c>
       <c r="H51" t="n">
         <v>0.004341999999994073</v>
       </c>
@@ -2055,16 +2055,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2048</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="F52" t="n">
         <v>8192</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>8192</v>
+      </c>
       <c r="H52" t="n">
         <v>0.004343000000005759</v>
       </c>
@@ -2086,16 +2086,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F53" t="n">
         <v>2048</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>2048</v>
+      </c>
       <c r="H53" t="n">
         <v>0.001502000000002113</v>
       </c>
@@ -2117,16 +2117,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F54" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4096</v>
+      </c>
       <c r="H54" t="n">
         <v>0.001512000000005287</v>
       </c>
@@ -2148,16 +2148,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F55" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>2048</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8192</v>
+      </c>
       <c r="H55" t="n">
         <v>0.001512000000005287</v>
       </c>
@@ -2179,16 +2179,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>4096</v>
       </c>
       <c r="F56" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2048</v>
+      </c>
       <c r="H56" t="n">
         <v>0.004306999999997174</v>
       </c>
@@ -2210,16 +2210,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>4096</v>
       </c>
       <c r="F57" t="n">
         <v>4096</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>4096</v>
+      </c>
       <c r="H57" t="n">
         <v>0.004306999999997174</v>
       </c>
@@ -2241,16 +2241,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>4096</v>
       </c>
       <c r="F58" t="n">
-        <v>8192</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8192</v>
+      </c>
       <c r="H58" t="n">
         <v>0.004309000000006336</v>
       </c>
@@ -2272,16 +2272,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F59" t="n">
-        <v>2048</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2048</v>
+      </c>
       <c r="H59" t="n">
         <v>0.004313999999993712</v>
       </c>
@@ -2303,16 +2303,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F60" t="n">
-        <v>4096</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4096</v>
+      </c>
       <c r="H60" t="n">
         <v>0.004313999999993712</v>
       </c>
@@ -2334,16 +2334,16 @@
           <t>BiMode</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>4096</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="F61" t="n">
         <v>8192</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>8192</v>
+      </c>
       <c r="H61" t="n">
         <v>0.004315000000005398</v>
       </c>
